--- a/BackTest/2019-10-18 BackTest GTO.xlsx
+++ b/BackTest/2019-10-18 BackTest GTO.xlsx
@@ -997,7 +997,9 @@
       <c r="J12" t="n">
         <v>2.800000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333325</v>
+      </c>
       <c r="L12" t="n">
         <v>16.14</v>
       </c>
@@ -1054,7 +1056,9 @@
       <c r="J13" t="n">
         <v>2.9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>16.06</v>
       </c>
@@ -1111,7 +1115,9 @@
       <c r="J14" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>23.07692307692312</v>
+      </c>
       <c r="L14" t="n">
         <v>16.04</v>
       </c>
@@ -1168,7 +1174,9 @@
       <c r="J15" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>13.04347826086959</v>
+      </c>
       <c r="L15" t="n">
         <v>16.1</v>
       </c>
@@ -1225,7 +1233,9 @@
       <c r="J16" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>23.8095238095238</v>
+      </c>
       <c r="L16" t="n">
         <v>16.13</v>
       </c>
